--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -348,7 +348,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-activity-field</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-activity-field|2.2.0-ballot</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -707,7 +707,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-activity-field.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
